--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC00245-C0E9-46D6-BFA7-7553ADBC7675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{1BC00245-C0E9-46D6-BFA7-7553ADBC7675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F778250-0EB5-425C-9F57-264BEEDA1F43}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="1512" windowWidth="12696" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3696" yWindow="3276" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1753,7 +1753,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1909,6 +1908,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2182,10 +2185,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2330,11 +2333,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="n">
-        <v>250000.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2348,7 +2351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2403,11 +2406,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="n">
-        <v>54000.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4879,27 +4882,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B7:F10"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>324</v>
+      </c>
+      <c r="E16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="575">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1753,6 +1753,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2185,7 +2186,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2201,7 +2202,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>573</v>
       </c>
     </row>
@@ -2218,8 +2219,8 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>574</v>
+      <c r="E2" t="n" s="0">
+        <v>1500000.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2333,8 +2334,8 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
-        <v>250000</v>
+      <c r="E10" t="n" s="0">
+        <v>250000.0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2406,8 +2407,8 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15">
-        <v>54000</v>
+      <c r="E15" t="n" s="0">
+        <v>54000.0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4891,65 +4892,65 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E1">
+      <c r="E1" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4">
+      <c r="B4" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5">
+      <c r="C5" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F7">
+      <c r="F7" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9">
+      <c r="C9" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10">
+      <c r="B10" s="0">
         <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>324</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>142</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F19">
+      <c r="F19" s="0">
         <v>5352</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D21">
+      <c r="D21" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22">
+      <c r="B22" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E24">
+      <c r="E24" s="0">
         <v>67</v>
       </c>
     </row>
